--- a/results/python/system-design-primer/system-design-primer.xlsx
+++ b/results/python/system-design-primer/system-design-primer.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamc\Desktop\results\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashort11/research/CodeSize/results/python/system-design-primer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C6DE345-622D-4B4A-9E05-44E3561B4966}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C40A1D-3A2D-DA49-8311-8F8F064ABC93}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="12105"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="23980" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system-design-primer" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -445,7 +453,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1281,16 +1289,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1333,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1360,15 +1368,15 @@
         <v>4.4391891891891895</v>
       </c>
       <c r="N2" s="2">
-        <f>_xlfn.STDEV.P(C2:C149)</f>
-        <v>3.8942548663649958</v>
+        <f>_xlfn.STDEV.S(C2:C149)</f>
+        <v>3.9074781807031815</v>
       </c>
       <c r="O2" s="2">
         <f>N2/SQRT(COUNT(C2:C149))</f>
-        <v>0.32010577816968244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.32119272791269149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1403,15 +1411,15 @@
         <v>53.175675675675677</v>
       </c>
       <c r="N3" s="2">
-        <f>_xlfn.STDEV.P(D2:D149)</f>
-        <v>16.702773768763361</v>
+        <f>_xlfn.STDEV.S(D2:D149)</f>
+        <v>16.759489632373523</v>
       </c>
       <c r="O3" s="2">
         <f>N3/SQRT(COUNT(D2:D149))</f>
-        <v>1.3729595463875914</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.3776215616584211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1446,15 +1454,15 @@
         <v>6.756756756756757</v>
       </c>
       <c r="N4" s="2">
-        <f>_xlfn.STDEV.P(E2:E149)</f>
-        <v>2.7841773534434404</v>
+        <f>_xlfn.STDEV.S(E2:E149)</f>
+        <v>2.7936312935632373</v>
       </c>
       <c r="O4" s="2">
         <f>N4/SQRT(COUNT(E2:E149))</f>
-        <v>0.22885796869230571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.22963507778317577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <f>_xlfn.STDEV.P(F2:F149)</f>
+        <f>_xlfn.STDEV.S(F2:F149)</f>
         <v>0</v>
       </c>
       <c r="O5" s="2">
@@ -1497,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1517,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1537,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1557,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1577,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1597,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1617,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1637,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1657,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1677,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1697,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1717,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1737,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1757,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1777,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1797,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1817,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1837,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1857,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1877,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1897,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1917,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1937,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1957,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1977,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1997,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -2017,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2037,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2057,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2077,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2097,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2117,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2137,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2157,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2177,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2197,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2217,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2237,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2257,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2277,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2297,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -2317,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2337,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2357,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2377,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2397,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2417,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2437,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2457,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2477,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2497,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2517,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2537,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -2557,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2577,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2597,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2617,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2637,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -2657,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -2677,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -2697,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -2717,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -2737,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -2757,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -2777,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>59</v>
       </c>
@@ -2797,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>59</v>
       </c>
@@ -2817,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -2837,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>59</v>
       </c>
@@ -2857,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -2877,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>59</v>
       </c>
@@ -2897,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>59</v>
       </c>
@@ -2917,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -2937,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -2957,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -2977,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>73</v>
       </c>
@@ -2997,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>73</v>
       </c>
@@ -3017,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>73</v>
       </c>
@@ -3037,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>73</v>
       </c>
@@ -3057,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -3077,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>73</v>
       </c>
@@ -3097,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>73</v>
       </c>
@@ -3117,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>73</v>
       </c>
@@ -3137,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -3157,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>73</v>
       </c>
@@ -3177,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>73</v>
       </c>
@@ -3197,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>73</v>
       </c>
@@ -3217,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>73</v>
       </c>
@@ -3237,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>73</v>
       </c>
@@ -3257,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -3277,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>73</v>
       </c>
@@ -3297,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>73</v>
       </c>
@@ -3317,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -3337,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -3357,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>89</v>
       </c>
@@ -3377,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>89</v>
       </c>
@@ -3397,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>89</v>
       </c>
@@ -3417,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>89</v>
       </c>
@@ -3437,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>89</v>
       </c>
@@ -3457,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>89</v>
       </c>
@@ -3477,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>89</v>
       </c>
@@ -3497,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>89</v>
       </c>
@@ -3517,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>89</v>
       </c>
@@ -3537,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>89</v>
       </c>
@@ -3557,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>89</v>
       </c>
@@ -3577,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -3597,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>89</v>
       </c>
@@ -3617,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>89</v>
       </c>
@@ -3637,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -3657,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>89</v>
       </c>
@@ -3677,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>89</v>
       </c>
@@ -3697,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>89</v>
       </c>
@@ -3717,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>103</v>
       </c>
@@ -3737,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>103</v>
       </c>
@@ -3757,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>103</v>
       </c>
@@ -3777,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>103</v>
       </c>
@@ -3797,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>103</v>
       </c>
@@ -3817,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>103</v>
       </c>
@@ -3837,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>103</v>
       </c>
@@ -3857,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>103</v>
       </c>
@@ -3877,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>103</v>
       </c>
@@ -3897,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>103</v>
       </c>
@@ -3917,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>103</v>
       </c>
@@ -3937,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>103</v>
       </c>
@@ -3957,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>103</v>
       </c>
@@ -3977,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>103</v>
       </c>
@@ -3997,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>103</v>
       </c>
@@ -4017,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>103</v>
       </c>
@@ -4037,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>103</v>
       </c>
@@ -4057,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>103</v>
       </c>
@@ -4077,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>103</v>
       </c>
@@ -4097,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>122</v>
       </c>
@@ -4117,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>122</v>
       </c>
@@ -4137,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>122</v>
       </c>
@@ -4157,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>122</v>
       </c>
@@ -4177,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>122</v>
       </c>
@@ -4197,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>122</v>
       </c>
@@ -4217,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>122</v>
       </c>
@@ -4237,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>122</v>
       </c>
@@ -4257,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>124</v>
       </c>
@@ -4277,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>124</v>
       </c>
@@ -4297,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>124</v>
       </c>
@@ -4317,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>124</v>
       </c>
@@ -4337,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>124</v>
       </c>
@@ -4357,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>124</v>
       </c>
